--- a/ResultadoEleicoesDistritos/R. A. MADEIRA_CALHETA (MADEIRA).xlsx
+++ b/ResultadoEleicoesDistritos/R. A. MADEIRA_CALHETA (MADEIRA).xlsx
@@ -597,64 +597,64 @@
         <v>3692</v>
       </c>
       <c r="H2" t="n">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="I2" t="n">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="J2" t="n">
-        <v>1502</v>
+        <v>1586</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="M2" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N2" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S2" t="n">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="T2" t="n">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="U2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V2" t="n">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="W2" t="n">
         <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>2421</v>
+        <v>2324</v>
       </c>
       <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA2" t="n">
         <v>7</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
